--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_31.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08286445012787724</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Ab'], ['Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1768018018018018</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7'], ['F', 'F:min', 'C']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49), (56.36, 59.8), (49.58, 52.97)]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (52.386, 56.294), (38.588, 43.202)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:14.820000', '0:00:16.260000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.44, 12.42), (70.06, 80.28)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:03:56.400000', '0:03:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1041666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1263586956521739</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.701519, 23.528185)]</t>
+          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.2, 12.32)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08497246262785207</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E/4'], ['E/4', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D/7', 'D/6', 'A'], ['A', 'D', 'D/7']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(30.47, 33.309), (6.779, 9.34)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254), (10.560212, 12.866913)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:13.740000', '0:00:16.300000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>[['G#:maj', 'C#:maj', 'F#:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['E', 'A', 'D:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:13.120000', '0:00:16.600000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:03.779977', '0:01:15.482834')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05457875457875458</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'G:min7/A#', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3703703703703703</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.96, 78.7)]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.74, 11.89)]</t>
+          <t>[('0:00:37.331000', '0:00:49.319000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.179070', '0:00:34.801473')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03942307692307692</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min', 'C:min', 'D:hdim7/C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min'], ['F:min', 'F:min', 'G:hdim7'], ['F:min', 'C', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.76, 30.02), (16.06, 23.08), (13.72, 18.34)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(55.46, 59.63), (51.29, 55.46), (0.6, 5.9)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07275641025641026</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Ab:maj6', 'Ab:maj6', 'Ab:maj6', 'Ab:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'F#:min7', 'F#:min7', 'F#:min7']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(188.53, 193.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.62, 8.03)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(122.78, 137.555)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(48.32, 106.76)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.8, 98.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(70.203514, 87.246961)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.26, 45.46)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(212.6, 224.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(74.4, 86.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
